--- a/public/atm.xlsx
+++ b/public/atm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Nama</t>
   </si>
@@ -40,10 +40,70 @@
     <t>Jl. Ps. Kembang No.17, Sosromenduran, Gedong Tengen, Kota Yogyakarta, Daerah Istimewa Yogyakarta 55271</t>
   </si>
   <si>
-    <t>Rumah</t>
-  </si>
-  <si>
-    <t>Jalan Titi Bumi Timur</t>
+    <t>ATM BRI</t>
+  </si>
+  <si>
+    <t>Jalan godean</t>
+  </si>
+  <si>
+    <t>ATM Mandiri Atmajaya</t>
+  </si>
+  <si>
+    <t>6C97+MP2, Jl. Babarsari, Janti, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
+  </si>
+  <si>
+    <t>ATM Mandiri Eastparc</t>
+  </si>
+  <si>
+    <t>6C95+69C, Jl. Kledokan Babarsari, Ngentak, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
+  </si>
+  <si>
+    <t>ATM Mandiri KCP Adisucipto</t>
+  </si>
+  <si>
+    <t>Jl. Laksda Adisucipto No.47, Demangan, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
+  </si>
+  <si>
+    <t>ATM Mandiri UII</t>
+  </si>
+  <si>
+    <t>6CQ6+WW3, Jl. Prawiro Kuat, Ngringin, Condongcatur, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55283</t>
+  </si>
+  <si>
+    <t>ATM Mandiri Colombo</t>
+  </si>
+  <si>
+    <t>69FJ+9FH, Jl. Colombo Yogyakarta, Karang Malang, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
+  </si>
+  <si>
+    <t>ATM Mandiri Mirota Gejayan</t>
+  </si>
+  <si>
+    <t>Jl. Affandi No.43, Santren, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
+  </si>
+  <si>
+    <t>ATM Mandiri UGM</t>
+  </si>
+  <si>
+    <t>69GG+H3C, Jl. Persatuan, Sendowo, Caturtunggal, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
+  </si>
+  <si>
+    <t>ATM Mandiri SPBU Tajem</t>
+  </si>
+  <si>
+    <t>Jl. Raya Tajem No.21, Meguwo, Maguwoharjo, Kec. Depok, Kabupaten Sleman, Daerah Istimewa Yogyakarta 55281</t>
+  </si>
+  <si>
+    <t>ATM Mandiri Timoho</t>
+  </si>
+  <si>
+    <t>Indomaret, Jl. Timoho, Baciro, Kec. Gondokusuman, Kota Yogyakarta, Daerah Istimewa Yogyakarta 55225</t>
+  </si>
+  <si>
+    <t>ATM Mandiri Bethesda</t>
+  </si>
+  <si>
+    <t>Jl. Jend. Sudirman No.70, Kotabaru, Kec. Gondokusuman, Kota Yogyakarta, Daerah Istimewa Yogyakarta 55224</t>
   </si>
 </sst>
 </file>
@@ -387,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,10 +511,150 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>-7.7859702000000004</v>
+        <v>-7.7799069999999997</v>
       </c>
       <c r="D4" s="2">
-        <v>110.34549819999999</v>
+        <v>110.344855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>-7.7808039999999998</v>
+      </c>
+      <c r="D5">
+        <v>110.414068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>-7.781949</v>
+      </c>
+      <c r="D6">
+        <v>110.408447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>-7.7829189999999997</v>
+      </c>
+      <c r="D7">
+        <v>110.39040300000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>-7.7601190000000004</v>
+      </c>
+      <c r="D8">
+        <v>110.412296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>-7.776624</v>
+      </c>
+      <c r="D9">
+        <v>110.38126699999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>-7.7693199999999996</v>
+      </c>
+      <c r="D10">
+        <v>110.390687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>-7.7735070000000004</v>
+      </c>
+      <c r="D11">
+        <v>110.37508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>-7.7661429999999996</v>
+      </c>
+      <c r="D12">
+        <v>110.431923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>-7.7901389999999999</v>
+      </c>
+      <c r="D13">
+        <v>110.393517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>-7.7831049999999999</v>
+      </c>
+      <c r="D14">
+        <v>110.378924</v>
       </c>
     </row>
   </sheetData>
